--- a/output/endemo2_demand_projections_2018.xlsx
+++ b/output/endemo2_demand_projections_2018.xlsx
@@ -501,25 +501,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00075</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8041</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02183</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02641</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6030799999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -532,25 +532,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00042</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00067</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00063</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -842,25 +842,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.07958999999999999</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.00216</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.00261</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.01512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.05969</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00074</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00121</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00105</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00066</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4984,19 +4984,19 @@
         <v>0.00061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15244</v>
+        <v>0.15208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0207</v>
+        <v>0.02065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03266</v>
+        <v>0.03258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09908</v>
+        <v>0.09884999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00027</v>
+        <v>0.00026</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00088</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00045</v>
+        <v>0.00044</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00061</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -5507,27 +5507,15 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.00113</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>100</v>
       </c>
@@ -5541,24 +5529,14 @@
       <c r="B20" t="n">
         <v>6e-05</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>100</v>
       </c>
@@ -5572,24 +5550,14 @@
       <c r="B21" t="n">
         <v>0.00116</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>100</v>
       </c>
@@ -5603,24 +5571,14 @@
       <c r="B22" t="n">
         <v>0.00047</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>100</v>
       </c>
@@ -5632,26 +5590,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00757</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>100</v>
       </c>
@@ -5663,26 +5611,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00406</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00399</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>100</v>
       </c>
@@ -5696,24 +5634,14 @@
       <c r="B25" t="n">
         <v>0.00023</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>100</v>
       </c>
@@ -5725,26 +5653,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00114</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>100</v>
       </c>
@@ -5756,26 +5674,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00066</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00065</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>100</v>
       </c>
@@ -5820,24 +5728,14 @@
       <c r="B29" t="n">
         <v>4e-05</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>100</v>
       </c>
@@ -5880,26 +5778,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00012</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00013</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>100</v>
       </c>
@@ -5944,24 +5832,14 @@
       <c r="B33" t="n">
         <v>3e-05</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>100</v>
       </c>
@@ -5975,24 +5853,14 @@
       <c r="B34" t="n">
         <v>0.00011</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>100</v>
       </c>
@@ -6006,24 +5874,14 @@
       <c r="B35" t="n">
         <v>0.00017</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>100</v>
       </c>
@@ -6101,25 +5959,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21052</v>
+        <v>0.20723</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00762</v>
+        <v>0.0075</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0008</v>
+        <v>0.00079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01053</v>
+        <v>0.01036</v>
       </c>
       <c r="H2" t="n">
-        <v>0.19158</v>
+        <v>0.18858</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6287,7 +6145,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6318,7 +6176,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00037</v>
+        <v>0.00035</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6411,7 +6269,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6442,7 +6300,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6473,7 +6331,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0009</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6628,7 +6486,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00039</v>
+        <v>0.00037</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -6969,7 +6827,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -7062,7 +6920,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -7093,7 +6951,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00011</v>
+        <v>0.00012</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -8341,25 +8199,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06369</v>
+        <v>0.06233</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00173</v>
+        <v>0.00169</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00209</v>
+        <v>0.00205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0121</v>
+        <v>0.01184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04777</v>
+        <v>0.04675</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8465,7 +8323,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -8558,7 +8416,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00068</v>
+        <v>0.00066</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8620,7 +8478,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -8713,7 +8571,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01378</v>
+        <v>0.0133</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -8837,7 +8695,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00025</v>
+        <v>0.00026</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9023,7 +8881,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00035</v>
+        <v>0.00036</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -9085,7 +8943,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00032</v>
+        <v>0.00031</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -9240,7 +9098,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -9588,13 +9446,13 @@
         <v>0.00041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00257</v>
+        <v>0.00254</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="F6" t="n">
         <v>0.00015</v>
@@ -9603,7 +9461,7 @@
         <v>0.0001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00185</v>
+        <v>0.00183</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
@@ -9647,7 +9505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00085</v>
+        <v>0.00086</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9678,7 +9536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00053</v>
+        <v>0.00052</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9771,7 +9629,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9864,7 +9722,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9895,7 +9753,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00069</v>
+        <v>0.00065</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9957,7 +9815,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -10019,7 +9877,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -10050,7 +9908,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00177</v>
+        <v>0.00181</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -10081,7 +9939,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00155</v>
+        <v>0.00156</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -10143,7 +10001,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -10174,7 +10032,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -10205,7 +10063,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01566</v>
+        <v>0.01547</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -10236,7 +10094,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -10267,7 +10125,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00665</v>
+        <v>0.00643</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -10391,7 +10249,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00216</v>
+        <v>0.00215</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -10422,7 +10280,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.11237</v>
+        <v>0.11368</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -11732,7 +11590,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11825,7 +11683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11918,7 +11776,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -12197,7 +12055,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12352,7 +12210,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00029</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12383,7 +12241,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -12445,7 +12303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -12600,7 +12458,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -12821,25 +12679,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01617</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00293</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00095</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00065</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01164</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12852,7 +12710,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -12945,7 +12803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -13286,7 +13144,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -13317,7 +13175,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -13441,7 +13299,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -13503,7 +13361,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -13941,25 +13799,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00072</v>
+        <v>0.00071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00488</v>
+        <v>0.0048</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00081</v>
+        <v>0.0008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00322</v>
+        <v>0.00317</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13972,7 +13830,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -14003,7 +13861,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -14158,7 +14016,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -14344,7 +14202,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -14375,7 +14233,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -14623,7 +14481,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -14685,7 +14543,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -14716,7 +14574,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>

--- a/output/endemo2_demand_projections_2018.xlsx
+++ b/output/endemo2_demand_projections_2018.xlsx
@@ -845,7 +845,7 @@
         <v>6.999999999999999e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07958999999999999</v>
+        <v>0.07939</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0.00261</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01512</v>
+        <v>0.01508</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05969</v>
+        <v>0.05954</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
@@ -4981,22 +4981,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00061</v>
+        <v>0.00063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15208</v>
+        <v>0.15643</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02065</v>
+        <v>0.02124</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03258</v>
+        <v>0.03351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09884999999999999</v>
+        <v>0.10168</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00013</v>
+        <v>0.00015</v>
       </c>
       <c r="C3" t="n">
-        <v>5e-05</v>
+        <v>6e-05</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>1e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>3e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00026</v>
+        <v>0.00024</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00088</v>
+        <v>0.00091</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00018</v>
+        <v>0.00014</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00044</v>
+        <v>0.00045</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00046</v>
+        <v>0.00038</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00052</v>
+        <v>0.0005</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00019</v>
+        <v>0.0002</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00201</v>
+        <v>0.00189</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00028</v>
+        <v>0.00037</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00116</v>
+        <v>0.00119</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00047</v>
+        <v>0.00053</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00757</v>
+        <v>0.00641</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00399</v>
+        <v>0.00353</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00023</v>
+        <v>0.00016</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00114</v>
+        <v>0.0007</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00065</v>
+        <v>0.00051</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00013</v>
+        <v>0.00021</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00011</v>
+        <v>0.00015</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00017</v>
+        <v>0.00018</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
@@ -5959,25 +5959,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00029</v>
+        <v>0.00024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20723</v>
+        <v>0.1707</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0075</v>
+        <v>0.00618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00079</v>
+        <v>0.00065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01036</v>
+        <v>0.008529999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18858</v>
+        <v>0.15533</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.00015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>1e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002</v>
+        <v>0.00014</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00017</v>
+        <v>0.00013</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00055</v>
+        <v>0.00033</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00035</v>
+        <v>0.00024</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00011</v>
+        <v>0.0001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00031</v>
+        <v>0.00029</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00024</v>
+        <v>0.00018</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00014</v>
+        <v>0.00021</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00082</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00012</v>
+        <v>0.0001</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00037</v>
+        <v>0.00025</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00025</v>
+        <v>0.0002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00013</v>
+        <v>0.00015</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00019</v>
+        <v>0.00035</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00014</v>
+        <v>0.00011</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00011</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00021</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -6951,7 +6951,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -8199,25 +8199,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00069</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06233</v>
+        <v>0.05835</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00169</v>
+        <v>0.00158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00205</v>
+        <v>0.00192</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01184</v>
+        <v>0.01109</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04675</v>
+        <v>0.04376</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="C3" t="n">
         <v>1e-05</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00066</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00026</v>
+        <v>0.0002</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00076</v>
+        <v>0.00074</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0133</v>
+        <v>0.01129</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5e-05</v>
+        <v>6e-05</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00018</v>
+        <v>0.00021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00026</v>
+        <v>0.00028</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00043</v>
+        <v>0.0005</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00067</v>
+        <v>0.00076</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00065</v>
+        <v>0.00066</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00036</v>
+        <v>0.00037</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00038</v>
+        <v>0.00051</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00027</v>
+        <v>0.00031</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -9443,25 +9443,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00041</v>
+        <v>0.00031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00254</v>
+        <v>0.00191</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00046</v>
+        <v>0.00035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00015</v>
+        <v>0.00011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00183</v>
+        <v>0.00138</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00086</v>
+        <v>0.00082</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00052</v>
+        <v>0.00037</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00032</v>
+        <v>0.00031</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00065</v>
+        <v>0.00025</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00068</v>
+        <v>0.00076</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00156</v>
+        <v>0.00201</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00069</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00022</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -10063,7 +10063,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01547</v>
+        <v>0.01479</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00643</v>
+        <v>0.00378</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00215</v>
+        <v>0.00182</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.11368</v>
+        <v>0.14761</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -13802,13 +13802,13 @@
         <v>0.00071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0048</v>
+        <v>0.00482</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="F2" t="n">
         <v>0.0008</v>
@@ -13817,7 +13817,7 @@
         <v>0.00053</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00317</v>
+        <v>0.00318</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14233,7 +14233,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00037</v>
+        <v>0.00038</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
